--- a/modules/veteran/spec/fixtures/xlsx_files/rep-mock-data.xlsx
+++ b/modules/veteran/spec/fixtures/xlsx_files/rep-mock-data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>Number</t>
   </si>
@@ -63,10 +63,10 @@
     <t>EmailAddress</t>
   </si>
   <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Jeany</t>
+    <t>Engle</t>
+  </si>
+  <si>
+    <t>Alissa</t>
   </si>
   <si>
     <t>Ms.</t>
@@ -75,13 +75,13 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>Lieberman &amp; Mark, PLLC</t>
-  </si>
-  <si>
-    <t>818 Connecticut Avenue NW</t>
-  </si>
-  <si>
-    <t>Suite 502</t>
+    <t>Steven &amp; Bob, PLLC</t>
+  </si>
+  <si>
+    <t>700 Broadway Avenue NE</t>
+  </si>
+  <si>
+    <t>Suite 500</t>
   </si>
   <si>
     <t>Washington</t>
@@ -90,28 +90,25 @@
     <t>DC</t>
   </si>
   <si>
-    <t>202-499-5680</t>
-  </si>
-  <si>
-    <t>202-393-3020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeanymark@gmail.com </t>
+    <t>123-234-3456</t>
+  </si>
+  <si>
+    <t>name@example.com</t>
   </si>
   <si>
     <t>26B</t>
   </si>
   <si>
-    <t>Goss</t>
-  </si>
-  <si>
-    <t>Robert</t>
+    <t>Stipend</t>
+  </si>
+  <si>
+    <t>Lisa</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>5100 Westheimer, Suite 115</t>
+    <t>6000 Eastheimer, Suite 100</t>
   </si>
   <si>
     <t>Houston</t>
@@ -120,19 +117,32 @@
     <t>TX</t>
   </si>
   <si>
-    <t>713-572-4838</t>
-  </si>
-  <si>
-    <t>Bob@gosslaw.com</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>email_with_trailing_whitespace@example.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t>07Z</t>
   </si>
   <si>
-    <t>Hunt</t>
-  </si>
-  <si>
-    <t>Darryl</t>
+    <t>Boardroom</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
   <si>
     <t>W</t>
@@ -141,10 +151,10 @@
     <t>Mr.</t>
   </si>
   <si>
-    <t>1 Chase Corporate</t>
-  </si>
-  <si>
-    <t>Suite 400</t>
+    <t>1 Chemical Corporate</t>
+  </si>
+  <si>
+    <t>Suite 100</t>
   </si>
   <si>
     <t>Birmingham</t>
@@ -153,28 +163,22 @@
     <t>AL</t>
   </si>
   <si>
-    <t>205-397-6478</t>
-  </si>
-  <si>
-    <t>205-397-6421</t>
-  </si>
-  <si>
-    <t>dhunt@clarkandjames.com</t>
+    <t>asdf</t>
   </si>
   <si>
     <t>1I4</t>
   </si>
   <si>
-    <t>Pflepsen</t>
-  </si>
-  <si>
-    <t>Keith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Law Offices of Woodall &amp; Pflepsen, P.C. </t>
-  </si>
-  <si>
-    <t>405 W. Tift Avenue</t>
+    <t>Mal</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Law Offices of Beavis &amp; Stein, P.C. </t>
+  </si>
+  <si>
+    <t>400 W. Nard Avenue</t>
   </si>
   <si>
     <t>Albany</t>
@@ -183,25 +187,33 @@
     <t>GA</t>
   </si>
   <si>
-    <t>reception2@woodallpflepsen.com</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>www.google.com</t>
+    </r>
   </si>
   <si>
     <t>01H</t>
   </si>
   <si>
-    <t>Hill</t>
-  </si>
-  <si>
-    <t>Matthew</t>
+    <t>Bestward</t>
+  </si>
+  <si>
+    <t>Steven</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>Hill &amp; Ponton, P.A.</t>
-  </si>
-  <si>
-    <t>P.O. Box 449</t>
+    <t>Road &amp; Pond, P.A.</t>
+  </si>
+  <si>
+    <t>P.O. Box 100</t>
   </si>
   <si>
     <t>Deland</t>
@@ -210,13 +222,23 @@
     <t>FL</t>
   </si>
   <si>
-    <t>386-239-0978</t>
-  </si>
-  <si>
-    <t>386-257-2100 ext.206</t>
-  </si>
-  <si>
-    <t>mdhill@hillandponton.com</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>name@</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>name@example.com</t>
+    </r>
   </si>
   <si>
     <t>WorkEmailAddress</t>
@@ -231,16 +253,16 @@
     <t>VSO_POA</t>
   </si>
   <si>
-    <t>McDaniel</t>
-  </si>
-  <si>
-    <t>Carl</t>
+    <t>McDonald</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>5850 Championship View, Suite 130</t>
+    <t>123 Main Street, Suite 1</t>
   </si>
   <si>
     <t>Colorado Springs</t>
@@ -252,10 +274,10 @@
     <t>Fleet Reserve Association</t>
   </si>
   <si>
-    <t>Abel</t>
-  </si>
-  <si>
-    <t>Jami</t>
+    <t>Notable</t>
+  </si>
+  <si>
+    <t>Karen</t>
   </si>
   <si>
     <t>M</t>
@@ -264,10 +286,10 @@
     <t>Lake County Veterans Service Commission</t>
   </si>
   <si>
-    <t>105 Main Street</t>
-  </si>
-  <si>
-    <t>PO Box 490</t>
+    <t>123 Main Street</t>
+  </si>
+  <si>
+    <t>PO Box 123</t>
   </si>
   <si>
     <t>Painesville</t>
@@ -279,10 +301,15 @@
     <t>44077-0490</t>
   </si>
   <si>
-    <t>440-350-2904</t>
-  </si>
-  <si>
-    <t>jami.abel@lakecountyohio.gov</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>first_last@example.com</t>
+    </r>
   </si>
   <si>
     <t>Veterans of Foreign Wars</t>
@@ -303,16 +330,10 @@
     <t>Disabled American Veterans</t>
   </si>
   <si>
-    <t>Ingle</t>
-  </si>
-  <si>
-    <t>Melissa</t>
-  </si>
-  <si>
     <t>Floyd Veterans Memorial Building</t>
   </si>
   <si>
-    <t>205 Jesse Hill Jr., Drive, Suite E-970</t>
+    <t>123 Good Drive, Suite E</t>
   </si>
   <si>
     <t>Atlanta</t>
@@ -330,16 +351,10 @@
     <t>Jewish War Veterans of the USA</t>
   </si>
   <si>
-    <t>Lawrence</t>
-  </si>
-  <si>
-    <t>Monica</t>
-  </si>
-  <si>
     <t>Tennessee Department of Veterans Affairs</t>
   </si>
   <si>
-    <t>110 Ninth Avenue South, Room A-310</t>
+    <t>123 First Avenue West, Room A</t>
   </si>
   <si>
     <t>Nashville</t>
@@ -348,37 +363,30 @@
     <t>TN</t>
   </si>
   <si>
-    <t>Walden</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>TDVA</t>
-  </si>
-  <si>
-    <t>615-741-6231</t>
-  </si>
-  <si>
-    <t>615-695-6337</t>
-  </si>
-  <si>
-    <t>Bueno</t>
-  </si>
-  <si>
-    <t>Eduard</t>
+    <t>ASDF</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>email_with_trailing_whitespace@example.com</t>
+    </r>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>DAV, VARO</t>
-  </si>
-  <si>
-    <t>245 West Houston Street, Rm. 204</t>
-  </si>
-  <si>
-    <t>Room 204</t>
+    <t>ASDF, SDFG</t>
+  </si>
+  <si>
+    <t>234 East Houston Street, Rm. 100</t>
+  </si>
+  <si>
+    <t>Room 100</t>
   </si>
   <si>
     <t>New York</t>
@@ -387,25 +395,13 @@
     <t>NY</t>
   </si>
   <si>
-    <t>212-807-4016</t>
-  </si>
-  <si>
-    <t>212-807-3157</t>
-  </si>
-  <si>
-    <t>Woodard</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>PVA, VARO</t>
-  </si>
-  <si>
-    <t>640 4th Avenue, Room 137</t>
+    <t>QWER, SDFG</t>
+  </si>
+  <si>
+    <t>345 1st Avenue, Room 200</t>
   </si>
   <si>
     <t>Huntington</t>
@@ -414,12 +410,6 @@
     <t>WV</t>
   </si>
   <si>
-    <t>304-525-2810</t>
-  </si>
-  <si>
-    <t>dougw@pva.org</t>
-  </si>
-  <si>
     <t>Paralyzed Veterans of America</t>
   </si>
   <si>
@@ -450,13 +440,13 @@
     <t>AcceptsElectronicPOAs</t>
   </si>
   <si>
-    <t>Blinded Veterans Association</t>
+    <t>First Veterans Association</t>
   </si>
   <si>
     <t>202-371-8880</t>
   </si>
   <si>
-    <t>1101 King Street, Suite 300</t>
+    <t>123 King Street, Suite 300</t>
   </si>
   <si>
     <t>Alexandria</t>
@@ -465,22 +455,25 @@
     <t>VA</t>
   </si>
   <si>
+    <t>Second Reserve Association</t>
+  </si>
+  <si>
     <t>703-683 1400</t>
   </si>
   <si>
-    <t>125 North West Street</t>
+    <t>123 North West Street</t>
   </si>
   <si>
     <t>22314-2754</t>
   </si>
   <si>
-    <t>African American PTSD Association</t>
+    <t>Peoples American PTSD Association</t>
   </si>
   <si>
     <t>253-589-0766</t>
   </si>
   <si>
-    <t>9129 Veterans Drive SW</t>
+    <t>123 Veterans Drive SW</t>
   </si>
   <si>
     <t>Lakewood</t>
@@ -498,16 +491,19 @@
     <t>American Ex-POW</t>
   </si>
   <si>
-    <t>National Headquarters • PO Box 3444</t>
+    <t>National Headquarters • PO Box 3000</t>
   </si>
   <si>
     <t>Arlington</t>
   </si>
   <si>
+    <t>US Legion</t>
+  </si>
+  <si>
     <t>202-861-2700</t>
   </si>
   <si>
-    <t>1608 K Street NW</t>
+    <t>123 K Street NW</t>
   </si>
   <si>
     <t xml:space="preserve">Washington </t>
@@ -520,7 +516,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -536,6 +532,12 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -546,7 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -561,16 +563,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,29 +582,23 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -625,8 +621,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -825,17 +822,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -862,10 +859,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1104,12 +1101,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1386,7 +1383,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1413,10 +1410,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1705,7 +1702,7 @@
       <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
       <c r="I1" t="s" s="2">
@@ -1734,10 +1731,10 @@
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>8859</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>489</v>
       </c>
       <c r="C2" t="s" s="2">
@@ -1746,14 +1743,14 @@
       <c r="D2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
       <c r="F2" t="s" s="2">
         <v>18</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I2" t="s" s="2">
@@ -1768,216 +1765,221 @@
       <c r="L2" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>20006</v>
       </c>
       <c r="N2" t="s" s="2">
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>8861</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="D3" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="E3" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="F3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="F3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s" s="3">
+      <c r="I3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="I3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" s="3">
+        <v>77056</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="M3" s="4">
-        <v>77056</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>8864</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="E4" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="F4" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="G4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="I4" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s" s="3">
+      <c r="J4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="I4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="J4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s" s="2">
+      <c r="M4" s="3">
+        <v>35244</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="M4" s="4">
-        <v>35244</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="P4" t="s" s="2">
-        <v>48</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>8865</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="J5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s" s="3">
+      <c r="M5" s="3">
+        <v>31701</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="M5" s="4">
-        <v>31701</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="P5" t="s" s="2">
-        <v>56</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>8866</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="I6" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="J6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s" s="3">
+      <c r="M6" s="3">
+        <v>32721</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M6" s="4">
-        <v>32721</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="P6" t="s" s="2">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P3" r:id="rId1" location="" tooltip="" display="email_with_trailing_whitespace@example.com"/>
+    <hyperlink ref="P5" r:id="rId2" location="" tooltip="" display="www.google.com"/>
+    <hyperlink ref="P6" r:id="rId3" location="" tooltip="" display="name@example.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -1994,24 +1996,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.35156" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.6719" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.1719" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.8516" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="58" style="6" customWidth="1"/>
-    <col min="7" max="7" width="57.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="43.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="6" customWidth="1"/>
-    <col min="12" max="12" width="18" style="6" customWidth="1"/>
-    <col min="13" max="13" width="21.1719" style="6" customWidth="1"/>
-    <col min="14" max="14" width="36.5" style="6" customWidth="1"/>
-    <col min="15" max="15" width="49.6719" style="6" customWidth="1"/>
-    <col min="16" max="16" width="19.8516" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="8.85156" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.35156" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.6719" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.1719" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.8516" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="58" style="5" customWidth="1"/>
+    <col min="7" max="7" width="57.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="43.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18" style="5" customWidth="1"/>
+    <col min="13" max="13" width="21.1719" style="5" customWidth="1"/>
+    <col min="14" max="14" width="36.5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="49.6719" style="5" customWidth="1"/>
+    <col min="16" max="16" width="19.8516" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="8.85156" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -2033,16 +2035,16 @@
       <c r="F1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="J1" t="s" s="2">
         <v>11</v>
       </c>
       <c r="K1" t="s" s="2">
@@ -2055,419 +2057,419 @@
         <v>14</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s" s="2">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Q1" t="s" s="2">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>62</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K2" s="3">
+        <v>80922</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="J2" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="K2" s="4">
-        <v>80922</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <v>0</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>102</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="E3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s" s="2">
+      <c r="L3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="O3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H3" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="I3" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="J3" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="O3" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>0</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>97</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>102</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="J4" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="K4" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="E4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s" s="2">
+      <c r="L4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G4" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="H4" t="s" s="3">
+      <c r="O4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="I4" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="J4" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="O4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>0</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>74</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="J5" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="K5" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="E5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s" s="2">
+      <c r="L5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G5" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="H5" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="I5" t="s" s="3">
+      <c r="O5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J5" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>0</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="J6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="E6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s" s="2">
+      <c r="L6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G6" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="H6" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="I6" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="J6" t="s" s="3">
+      <c r="O6" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>1</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>64</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>102</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="E7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s" s="2">
+      <c r="L7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G7" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="H7" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="I7" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="J7" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>1</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>102</v>
       </c>
       <c r="B8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="J8" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="K8" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="E8" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s" s="2">
+      <c r="L8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G8" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="H8" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="I8" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="J8" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M8" t="s" s="2">
+      <c r="O8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="N8" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>83</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>146</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s" s="2">
         <v>18</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="G9" t="s" s="3">
-        <v>99</v>
-      </c>
-      <c r="H9" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="J9" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="K9" s="4">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K9" s="3">
         <v>30334</v>
       </c>
       <c r="L9" t="s" s="2">
@@ -2480,47 +2482,47 @@
         <v>19</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="P9" s="4">
+        <v>92</v>
+      </c>
+      <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>146</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s" s="2">
         <v>18</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="G10" t="s" s="3">
-        <v>99</v>
-      </c>
-      <c r="H10" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="K10" s="4">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K10" s="3">
         <v>30334</v>
       </c>
       <c r="L10" t="s" s="2">
@@ -2533,47 +2535,47 @@
         <v>19</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P10" s="4">
+        <v>72</v>
+      </c>
+      <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>85</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s" s="2">
         <v>18</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="G11" t="s" s="3">
-        <v>99</v>
-      </c>
-      <c r="H11" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="J11" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="K11" s="4">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K11" s="3">
         <v>30334</v>
       </c>
       <c r="L11" t="s" s="2">
@@ -2586,47 +2588,47 @@
         <v>19</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="P11" s="4">
+        <v>93</v>
+      </c>
+      <c r="P11" s="3">
         <v>0</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s" s="2">
         <v>18</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="G12" t="s" s="3">
-        <v>99</v>
-      </c>
-      <c r="H12" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="J12" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="K12" s="4">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K12" s="3">
         <v>30334</v>
       </c>
       <c r="L12" t="s" s="2">
@@ -2639,47 +2641,47 @@
         <v>19</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="P12" s="4">
+        <v>83</v>
+      </c>
+      <c r="P12" s="3">
         <v>0</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>97</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>146</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>18</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="G13" t="s" s="3">
-        <v>99</v>
-      </c>
-      <c r="H13" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="J13" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="K13" s="4">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K13" s="3">
         <v>30334</v>
       </c>
       <c r="L13" t="s" s="2">
@@ -2692,47 +2694,47 @@
         <v>19</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="P13" s="4">
+        <v>94</v>
+      </c>
+      <c r="P13" s="3">
         <v>0</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>146</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>18</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="G14" t="s" s="3">
-        <v>99</v>
-      </c>
-      <c r="H14" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="K14" s="4">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K14" s="3">
         <v>30334</v>
       </c>
       <c r="L14" t="s" s="2">
@@ -2745,47 +2747,47 @@
         <v>19</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="P14" s="4">
+        <v>84</v>
+      </c>
+      <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>74</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>146</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>18</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="G15" t="s" s="3">
-        <v>99</v>
-      </c>
-      <c r="H15" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="I15" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="K15" s="4">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K15" s="3">
         <v>30334</v>
       </c>
       <c r="L15" t="s" s="2">
@@ -2798,47 +2800,47 @@
         <v>19</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="P15" s="4">
+        <v>95</v>
+      </c>
+      <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>86</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>158</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="G16" t="s" s="3">
-        <v>108</v>
-      </c>
-      <c r="H16" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="I16" t="s" s="3">
-        <v>109</v>
-      </c>
-      <c r="J16" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="K16" s="4">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K16" s="3">
         <v>37243</v>
       </c>
       <c r="L16" t="s" s="2">
@@ -2851,224 +2853,234 @@
         <v>19</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P16" s="4">
+        <v>72</v>
+      </c>
+      <c r="P16" s="3">
         <v>0</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>85</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>159</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="G17" t="s" s="3">
-        <v>108</v>
-      </c>
-      <c r="H17" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s" s="3">
-        <v>109</v>
-      </c>
-      <c r="J17" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="K17" s="4">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K17" s="3">
         <v>37243</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P17" s="4">
+        <v>72</v>
+      </c>
+      <c r="P17" s="3">
         <v>0</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>85</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>159</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="G18" t="s" s="3">
-        <v>108</v>
-      </c>
-      <c r="H18" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s" s="3">
-        <v>109</v>
-      </c>
-      <c r="J18" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="K18" s="4">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K18" s="3">
         <v>37243</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="P18" s="4">
+        <v>84</v>
+      </c>
+      <c r="P18" s="3">
         <v>1</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>74</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>166</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="G19" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="H19" t="s" s="3">
-        <v>121</v>
-      </c>
-      <c r="I19" t="s" s="3">
-        <v>122</v>
-      </c>
-      <c r="J19" t="s" s="3">
-        <v>123</v>
-      </c>
-      <c r="K19" s="4">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K19" s="3">
         <v>10014</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="P19" s="4">
+        <v>88</v>
+      </c>
+      <c r="P19" s="3">
         <v>1</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>83</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>176</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="G20" t="s" s="3">
-        <v>130</v>
-      </c>
-      <c r="H20" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s" s="3">
-        <v>131</v>
-      </c>
-      <c r="J20" t="s" s="3">
-        <v>132</v>
-      </c>
-      <c r="K20" s="4">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K20" s="3">
         <v>25701</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="P20" s="4">
+        <v>113</v>
+      </c>
+      <c r="P20" s="3">
         <v>1</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="3">
         <v>71</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N3" r:id="rId1" location="" tooltip="" display="first_last@example.com"/>
+    <hyperlink ref="N4" r:id="rId2" location="" tooltip="" display="first_last@example.com"/>
+    <hyperlink ref="N5" r:id="rId3" location="" tooltip="" display="first_last@example.com"/>
+    <hyperlink ref="N6" r:id="rId4" location="" tooltip="" display="first_last@example.com"/>
+    <hyperlink ref="N7" r:id="rId5" location="" tooltip="" display="first_last@example.com"/>
+    <hyperlink ref="N8" r:id="rId6" location="" tooltip="" display="first_last@example.com"/>
+    <hyperlink ref="N17" r:id="rId7" location="" tooltip="" display="email_with_trailing_whitespace@example.com"/>
+    <hyperlink ref="N18" r:id="rId8" location="" tooltip="" display="email_with_trailing_whitespace@example.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -3085,18 +3097,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.8516" style="8" customWidth="1"/>
-    <col min="4" max="4" width="26.6719" style="8" customWidth="1"/>
-    <col min="5" max="5" width="49.3516" style="8" customWidth="1"/>
-    <col min="6" max="6" width="40.1719" style="8" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="21" style="8" customWidth="1"/>
-    <col min="9" max="9" width="18.1719" style="8" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="8.85156" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.8516" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.6719" style="6" customWidth="1"/>
+    <col min="5" max="5" width="49.3516" style="6" customWidth="1"/>
+    <col min="6" max="6" width="40.1719" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.1719" style="6" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.85156" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.85156" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -3107,48 +3119,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>18</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>80</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>19</v>
@@ -3157,33 +3169,33 @@
         <v>19</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="J2" s="4">
+        <v>127</v>
+      </c>
+      <c r="J2" s="3">
         <v>22314</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>21</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>85</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>19</v>
@@ -3192,33 +3204,33 @@
         <v>19</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="K3" s="4">
+        <v>131</v>
+      </c>
+      <c r="K3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>91</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>19</v>
@@ -3227,68 +3239,68 @@
         <v>19</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="J4" s="4">
+        <v>136</v>
+      </c>
+      <c r="J4" s="3">
         <v>98498</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>65</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="J5" s="4">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3">
         <v>76007</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>74</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>19</v>
@@ -3297,15 +3309,15 @@
         <v>19</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>20006</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>1</v>
       </c>
     </row>

--- a/modules/veteran/spec/fixtures/xlsx_files/rep-mock-data.xlsx
+++ b/modules/veteran/spec/fixtures/xlsx_files/rep-mock-data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>Number</t>
   </si>
@@ -117,130 +117,97 @@
     <t>TX</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>email_with_trailing_whitespace@example.com</t>
-    </r>
+    <t xml:space="preserve">email_with_trailing_whitespace@example.com </t>
+  </si>
+  <si>
+    <t>07Z</t>
+  </si>
+  <si>
+    <t>Boardroom</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>1 Chemical Corporate</t>
+  </si>
+  <si>
+    <t>Suite 100</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>1I4</t>
+  </si>
+  <si>
+    <t>Mal</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Law Offices of Beavis &amp; Stein, P.C. </t>
+  </si>
+  <si>
+    <t>400 W. Nard Avenue</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>01H</t>
+  </si>
+  <si>
+    <t>Bestward</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Road &amp; Pond, P.A.</t>
+  </si>
+  <si>
+    <t>P.O. Box 100</t>
+  </si>
+  <si>
+    <t>Deland</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>name@name@example.com</t>
     </r>
   </si>
   <si>
-    <t>07Z</t>
-  </si>
-  <si>
-    <t>Boardroom</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t>1 Chemical Corporate</t>
-  </si>
-  <si>
-    <t>Suite 100</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>1I4</t>
-  </si>
-  <si>
-    <t>Mal</t>
-  </si>
-  <si>
-    <t>Stewart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Law Offices of Beavis &amp; Stein, P.C. </t>
-  </si>
-  <si>
-    <t>400 W. Nard Avenue</t>
-  </si>
-  <si>
-    <t>Albany</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>www.google.com</t>
-    </r>
-  </si>
-  <si>
-    <t>01H</t>
-  </si>
-  <si>
-    <t>Bestward</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Road &amp; Pond, P.A.</t>
-  </si>
-  <si>
-    <t>P.O. Box 100</t>
-  </si>
-  <si>
-    <t>Deland</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>name@</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>name@example.com</t>
-    </r>
-  </si>
-  <si>
     <t>WorkEmailAddress</t>
   </si>
   <si>
@@ -301,15 +268,7 @@
     <t>44077-0490</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>first_last@example.com</t>
-    </r>
+    <t>first_last@example.com</t>
   </si>
   <si>
     <t>Veterans of Foreign Wars</t>
@@ -364,17 +323,6 @@
   </si>
   <si>
     <t>ASDF</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>email_with_trailing_whitespace@example.com</t>
-    </r>
   </si>
   <si>
     <t>G</t>
@@ -516,7 +464,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -530,12 +478,6 @@
     <font>
       <sz val="15"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color indexed="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -623,7 +565,6 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1975,11 +1916,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1" location="" tooltip="" display="email_with_trailing_whitespace@example.com"/>
-    <hyperlink ref="P5" r:id="rId2" location="" tooltip="" display="www.google.com"/>
-    <hyperlink ref="P6" r:id="rId3" location="" tooltip="" display="name@example.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -2009,7 +1945,7 @@
     <col min="11" max="11" width="11.5" style="5" customWidth="1"/>
     <col min="12" max="12" width="18" style="5" customWidth="1"/>
     <col min="13" max="13" width="21.1719" style="5" customWidth="1"/>
-    <col min="14" max="14" width="36.5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="51.1094" style="5" customWidth="1"/>
     <col min="15" max="15" width="49.6719" style="5" customWidth="1"/>
     <col min="16" max="16" width="19.8516" style="5" customWidth="1"/>
     <col min="17" max="17" width="9.5" style="5" customWidth="1"/>
@@ -2901,7 +2837,7 @@
         <v>25</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>72</v>
@@ -2952,7 +2888,7 @@
         <v>25</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>84</v>
@@ -2975,25 +2911,25 @@
         <v>47</v>
       </c>
       <c r="D19" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="E19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s" s="2">
+      <c r="G19" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="H19" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="I19" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="J19" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="K19" s="3">
         <v>10014</v>
@@ -3028,25 +2964,25 @@
         <v>55</v>
       </c>
       <c r="D20" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="E20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s" s="2">
+      <c r="G20" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="H20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s" s="2">
+      <c r="J20" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="K20" s="3">
         <v>25701</v>
@@ -3061,7 +2997,7 @@
         <v>44</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P20" s="3">
         <v>1</v>
@@ -3071,16 +3007,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" location="" tooltip="" display="first_last@example.com"/>
-    <hyperlink ref="N4" r:id="rId2" location="" tooltip="" display="first_last@example.com"/>
-    <hyperlink ref="N5" r:id="rId3" location="" tooltip="" display="first_last@example.com"/>
-    <hyperlink ref="N6" r:id="rId4" location="" tooltip="" display="first_last@example.com"/>
-    <hyperlink ref="N7" r:id="rId5" location="" tooltip="" display="first_last@example.com"/>
-    <hyperlink ref="N8" r:id="rId6" location="" tooltip="" display="first_last@example.com"/>
-    <hyperlink ref="N17" r:id="rId7" location="" tooltip="" display="email_with_trailing_whitespace@example.com"/>
-    <hyperlink ref="N18" r:id="rId8" location="" tooltip="" display="email_with_trailing_whitespace@example.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -3119,31 +3045,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="E1" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="F1" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="G1" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="H1" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="I1" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="J1" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="K1" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="K1" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
@@ -3154,25 +3080,25 @@
         <v>80</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="E2" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="F2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s" s="2">
+      <c r="I2" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="J2" s="3">
         <v>22314</v>
@@ -3189,28 +3115,28 @@
         <v>85</v>
       </c>
       <c r="C3" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="E3" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="F3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
@@ -3224,25 +3150,25 @@
         <v>91</v>
       </c>
       <c r="C4" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="E4" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="F4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="F4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s" s="2">
+      <c r="I4" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="J4" s="3">
         <v>98498</v>
@@ -3259,22 +3185,22 @@
         <v>65</v>
       </c>
       <c r="C5" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="E5" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="F5" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="G5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>33</v>
@@ -3294,22 +3220,22 @@
         <v>74</v>
       </c>
       <c r="C6" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="E6" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="F6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>24</v>

--- a/modules/veteran/spec/fixtures/xlsx_files/rep-mock-data.xlsx
+++ b/modules/veteran/spec/fixtures/xlsx_files/rep-mock-data.xlsx
@@ -5,9 +5,10 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Attorneys" sheetId="1" r:id="rId4"/>
-    <sheet name="Representatives" sheetId="2" r:id="rId5"/>
-    <sheet name="VSOs" sheetId="3" r:id="rId6"/>
+    <sheet name="Agents" sheetId="1" r:id="rId4"/>
+    <sheet name="Attorneys" sheetId="2" r:id="rId5"/>
+    <sheet name="Representatives" sheetId="3" r:id="rId6"/>
+    <sheet name="VSOs" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -33,9 +34,6 @@
     <t>SirNameTitle</t>
   </si>
   <si>
-    <t>OrganizationName</t>
-  </si>
-  <si>
     <t>WorkAddress1</t>
   </si>
   <si>
@@ -60,7 +58,7 @@
     <t>WorkNumber</t>
   </si>
   <si>
-    <t>EmailAddress</t>
+    <t>WorkEmailAddress</t>
   </si>
   <si>
     <t>Engle</t>
@@ -69,9 +67,6 @@
     <t>Alissa</t>
   </si>
   <si>
-    <t>Ms.</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -130,9 +125,6 @@
   </si>
   <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>Mr.</t>
   </si>
   <si>
     <t>1 Chemical Corporate</t>
@@ -208,7 +200,16 @@
     </r>
   </si>
   <si>
-    <t>WorkEmailAddress</t>
+    <t>OrganizationName</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Mr.</t>
   </si>
   <si>
     <t>VeteranServiceOrganization</t>
@@ -490,7 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -505,16 +506,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,14 +525,26 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -563,8 +576,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1596,29 +1609,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.35156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6719" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="48.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6719" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6719" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1719" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.1719" style="1" customWidth="1"/>
-    <col min="16" max="16" width="73.5" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.3516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6719" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.3516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="43.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1658,7 +1670,7 @@
       <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" t="s" s="3">
         <v>12</v>
       </c>
       <c r="N1" t="s" s="2">
@@ -1667,252 +1679,236 @@
       <c r="O1" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="4">
+        <v>8859</v>
+      </c>
+      <c r="B2" s="4">
+        <v>489</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="3">
-        <v>8859</v>
-      </c>
-      <c r="B2" s="3">
-        <v>489</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5"/>
       <c r="F2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="I2" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="J2" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" s="4">
+        <v>20006</v>
+      </c>
+      <c r="M2" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="N2" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="M2" s="3">
-        <v>20006</v>
-      </c>
-      <c r="N2" t="s" s="2">
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="4">
+        <v>8861</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="O2" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s" s="2">
+      <c r="C3" t="s" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="3">
-        <v>8861</v>
-      </c>
-      <c r="B3" t="s" s="2">
+      <c r="D3" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="E3" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="F3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="F3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="I3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" s="4">
+        <v>77056</v>
+      </c>
+      <c r="M3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="L3" t="s" s="2">
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="4">
+        <v>8864</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="M3" s="3">
-        <v>77056</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s" s="2">
+      <c r="C4" t="s" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="3">
-        <v>8864</v>
-      </c>
-      <c r="B4" t="s" s="2">
+      <c r="D4" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="E4" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="F4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="I4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s" s="2">
+      <c r="K4" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="I4" t="s" s="2">
+      <c r="L4" s="4">
+        <v>35244</v>
+      </c>
+      <c r="M4" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="J4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s" s="2">
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="4">
+        <v>8865</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="C5" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="M4" s="3">
-        <v>35244</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="P4" t="s" s="2">
+      <c r="D5" t="s" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="3">
-        <v>8865</v>
-      </c>
-      <c r="B5" t="s" s="2">
+      <c r="E5" s="5"/>
+      <c r="F5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="H5" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="I5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s" s="2">
+      <c r="K5" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="L5" s="4">
+        <v>31701</v>
+      </c>
+      <c r="M5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="J5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s" s="2">
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="4">
+        <v>8866</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="C6" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="M5" s="3">
-        <v>31701</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="P5" t="s" s="2">
+      <c r="D6" t="s" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="3">
-        <v>8866</v>
-      </c>
-      <c r="B6" t="s" s="2">
+      <c r="E6" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="F6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="H6" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="I6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="I6" t="s" s="2">
+      <c r="L6" s="4">
+        <v>32721</v>
+      </c>
+      <c r="M6" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M6" s="3">
-        <v>32721</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="P6" t="s" s="2">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1926,1084 +1922,323 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.35156" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.6719" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.1719" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.8516" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="58" style="5" customWidth="1"/>
-    <col min="7" max="7" width="57.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="43.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18" style="5" customWidth="1"/>
-    <col min="13" max="13" width="21.1719" style="5" customWidth="1"/>
-    <col min="14" max="14" width="51.1094" style="5" customWidth="1"/>
-    <col min="15" max="15" width="49.6719" style="5" customWidth="1"/>
-    <col min="16" max="16" width="19.8516" style="5" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="8.85156" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.35156" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.6719" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.3516" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.6719" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.8516" style="6" customWidth="1"/>
+    <col min="8" max="8" width="60.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="48.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="43.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="21.6719" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="13" width="10.6719" style="6" customWidth="1"/>
+    <col min="14" max="14" width="18.1719" style="6" customWidth="1"/>
+    <col min="15" max="15" width="21.1719" style="6" customWidth="1"/>
+    <col min="16" max="16" width="73.5" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="12.3516" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="G1" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="J1" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="K1" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="L1" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="M1" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="N1" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="O1" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="P1" t="s" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="7">
+        <v>8859</v>
+      </c>
+      <c r="B2" s="7">
+        <v>489</v>
+      </c>
+      <c r="C2" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="M2" s="7">
+        <v>20006</v>
+      </c>
+      <c r="N2" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="7">
+        <v>8861</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="M3" s="7">
+        <v>77056</v>
+      </c>
+      <c r="N3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="7">
+        <v>8864</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="O1" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P1" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="Q1" t="s" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="3">
+      <c r="G4" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="M4" s="7">
+        <v>35244</v>
+      </c>
+      <c r="N4" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="7">
+        <v>8865</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K2" s="3">
-        <v>80922</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="3">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="3">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="3">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>25</v>
+      <c r="G5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="M5" s="7">
+        <v>31701</v>
+      </c>
+      <c r="N5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="P5" t="s" s="3">
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="3">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="P6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="3">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="3">
-        <v>102</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="3">
-        <v>146</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J9" t="s" s="2">
+      <c r="A6" s="7">
+        <v>8866</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s" s="3">
         <v>51</v>
       </c>
-      <c r="K9" s="3">
-        <v>30334</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="3">
-        <v>146</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K10" s="3">
-        <v>30334</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="3">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K11" s="3">
-        <v>30334</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="3">
-        <v>146</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K12" s="3">
-        <v>30334</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="3">
-        <v>146</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K13" s="3">
-        <v>30334</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="3">
-        <v>146</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K14" s="3">
-        <v>30334</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="3">
-        <v>146</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K15" s="3">
-        <v>30334</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="3">
-        <v>158</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K16" s="3">
-        <v>37243</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="3">
-        <v>159</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K17" s="3">
-        <v>37243</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="3">
-        <v>159</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K18" s="3">
-        <v>37243</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="3">
-        <v>166</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="E19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K19" s="3">
-        <v>10014</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="3">
-        <v>176</v>
-      </c>
-      <c r="B20" t="s" s="2">
+      <c r="D6" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s" s="3">
         <v>54</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="I6" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="D20" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K20" s="3">
-        <v>25701</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>71</v>
+      <c r="J6" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="M6" s="7">
+        <v>32721</v>
+      </c>
+      <c r="N6" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s" s="3">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3017,233 +2252,1324 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.35156" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.6719" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.1719" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.8516" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="58" style="9" customWidth="1"/>
+    <col min="7" max="7" width="57.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="43.5" style="9" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="9" customWidth="1"/>
+    <col min="12" max="12" width="18" style="9" customWidth="1"/>
+    <col min="13" max="13" width="21.1719" style="9" customWidth="1"/>
+    <col min="14" max="14" width="51.1719" style="9" customWidth="1"/>
+    <col min="15" max="15" width="49.6719" style="9" customWidth="1"/>
+    <col min="16" max="16" width="19.8516" style="9" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="9" customWidth="1"/>
+    <col min="18" max="16384" width="8.85156" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" t="s" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="P1" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q1" t="s" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="7">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="K2" s="7">
+        <v>80922</v>
+      </c>
+      <c r="L2" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="7">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s" s="3">
+        <v>80</v>
+      </c>
+      <c r="K3" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="L3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="O3" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="7">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s" s="3">
+        <v>80</v>
+      </c>
+      <c r="K4" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="L4" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="O4" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="7">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s" s="3">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="L5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="7">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s" s="3">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="7">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s" s="3">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="7">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s" s="3">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="7">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="K9" s="7">
+        <v>30334</v>
+      </c>
+      <c r="L9" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="O9" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="7">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="K10" s="7">
+        <v>30334</v>
+      </c>
+      <c r="L10" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="O10" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" s="7">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="K11" s="7">
+        <v>30334</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" s="7">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="K12" s="7">
+        <v>30334</v>
+      </c>
+      <c r="L12" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" s="7">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="J13" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="K13" s="7">
+        <v>30334</v>
+      </c>
+      <c r="L13" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="O13" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" s="7">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="J14" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="K14" s="7">
+        <v>30334</v>
+      </c>
+      <c r="L14" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="O14" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" s="7">
+        <v>146</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="J15" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="K15" s="7">
+        <v>30334</v>
+      </c>
+      <c r="L15" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="N15" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="O15" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" s="7">
+        <v>158</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="3">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7">
+        <v>37243</v>
+      </c>
+      <c r="L16" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="M16" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="N16" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="O16" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" s="7">
+        <v>159</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="3">
+        <v>98</v>
+      </c>
+      <c r="J17" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7">
+        <v>37243</v>
+      </c>
+      <c r="L17" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="N17" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" s="7">
+        <v>159</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="3">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="K18" s="7">
+        <v>37243</v>
+      </c>
+      <c r="L18" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M18" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="N18" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="P18" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" s="7">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="H19" t="s" s="3">
+        <v>104</v>
+      </c>
+      <c r="I19" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="J19" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7">
+        <v>10014</v>
+      </c>
+      <c r="L19" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M19" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="N19" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="O19" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="P19" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" s="7">
+        <v>176</v>
+      </c>
+      <c r="B20" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s" s="3">
+        <v>108</v>
+      </c>
+      <c r="G20" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="H20" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s" s="3">
+        <v>110</v>
+      </c>
+      <c r="J20" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="K20" s="7">
+        <v>25701</v>
+      </c>
+      <c r="L20" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M20" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="N20" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="O20" t="s" s="3">
+        <v>112</v>
+      </c>
+      <c r="P20" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.8516" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.6719" style="6" customWidth="1"/>
-    <col min="5" max="5" width="49.3516" style="6" customWidth="1"/>
-    <col min="6" max="6" width="40.1719" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="21" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.1719" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.85156" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.8516" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.6719" style="10" customWidth="1"/>
+    <col min="5" max="5" width="49.3516" style="10" customWidth="1"/>
+    <col min="6" max="6" width="40.1719" style="10" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="21" style="10" customWidth="1"/>
+    <col min="9" max="9" width="18.1719" style="10" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="10" customWidth="1"/>
+    <col min="11" max="11" width="8.85156" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="8.85156" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="3">
         <v>113</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="3">
         <v>114</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="3">
         <v>115</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="3">
         <v>116</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" t="s" s="3">
         <v>118</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" t="s" s="3">
         <v>119</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" t="s" s="3">
         <v>120</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" t="s" s="3">
         <v>121</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>18</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>80</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" t="s" s="3">
         <v>122</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" t="s" s="3">
         <v>123</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" t="s" s="3">
         <v>124</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s" s="2">
+      <c r="F2" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s" s="3">
         <v>125</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" t="s" s="3">
         <v>126</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="7">
         <v>22314</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <v>21</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="7">
         <v>85</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="3">
         <v>127</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="3">
         <v>129</v>
       </c>
-      <c r="F3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s" s="2">
+      <c r="F3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s" s="3">
         <v>125</v>
       </c>
-      <c r="I3" t="s" s="2">
+      <c r="I3" t="s" s="3">
         <v>126</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="J3" t="s" s="3">
         <v>130</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="7">
         <v>91</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" t="s" s="3">
         <v>131</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" t="s" s="3">
         <v>132</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" t="s" s="3">
         <v>133</v>
       </c>
-      <c r="F4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s" s="2">
+      <c r="F4" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s" s="3">
         <v>134</v>
       </c>
-      <c r="I4" t="s" s="2">
+      <c r="I4" t="s" s="3">
         <v>135</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="7">
         <v>98498</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="7">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>65</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="3">
         <v>136</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="3">
         <v>137</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="3">
         <v>138</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s" s="2">
+      <c r="G5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s" s="3">
         <v>140</v>
       </c>
-      <c r="I5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="J5" s="7">
         <v>76007</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>74</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" t="s" s="3">
         <v>141</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" t="s" s="3">
         <v>142</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" t="s" s="3">
         <v>143</v>
       </c>
-      <c r="F6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s" s="2">
+      <c r="F6" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s" s="3">
         <v>144</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="J6" s="7">
         <v>20006</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="7">
         <v>1</v>
       </c>
     </row>
